--- a/data/trans_dic/VUL_OTRO-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_OTRO-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
     </row>
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 4,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>2,95; 11,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>3,59; 15,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 1,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 2,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>4,0; 11,04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>1,41; 6,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,83; 4,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 1,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>1,49; 4,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -857,42 +858,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0; 0,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>0,32; 2,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>1,29; 7,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,37; 2,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,29</t>
+          <t>0,19; 1,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,73; 3,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,23; 1,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,17</t>
+          <t>0,37; 1,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,32; 4,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,29</t>
+          <t>0,75; 2,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 11,87</t>
+          <t>0,41; 2,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,9</t>
+          <t>4,13; 11,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,51</t>
+          <t>0,0; 0,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 15,23</t>
+          <t>0,16; 2,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,32</t>
+          <t>1,61; 7,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,02</t>
+          <t>0,42; 1,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 11,23</t>
+          <t>0,39; 1,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,78</t>
+          <t>3,54; 8,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,18</t>
+          <t>0,08; 1,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,31</t>
+          <t>0,0; 0,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>4,92; 21,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,49</t>
+          <t>0,27; 1,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,99</t>
+          <t>0,11; 1,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,89; 11,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,63</t>
+          <t>0,26; 1,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,74</t>
+          <t>0,11; 0,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,86</t>
+          <t>3,46; 12,32</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>0,89%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>3,2%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,19</t>
+          <t>0,19; 1,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,43</t>
+          <t>0,0; 0,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,57</t>
+          <t>0,64; 9,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,05</t>
+          <t>0,44; 2,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,51</t>
+          <t>0,26; 2,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,85</t>
+          <t>0,8; 11,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,71</t>
+          <t>0,42; 1,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,41</t>
+          <t>0,24; 1,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,09</t>
+          <t>1,15; 7,75</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>12,48%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,22</t>
+          <t>0,09; 0,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,39; 12,28</t>
+          <t>0,45; 2,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,35</t>
+          <t>2,2; 10,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,78</t>
+          <t>0,37; 2,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,03</t>
+          <t>0,49; 2,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,71</t>
+          <t>11,9; 23,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,55</t>
+          <t>0,29; 1,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,67; 8,05</t>
+          <t>0,6; 2,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,33</t>
+          <t>9,04; 17,0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>5,38%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,67</t>
+          <t>0,34; 0,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,3; 21,16</t>
+          <t>0,53; 1,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,02</t>
+          <t>4,02; 7,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,84</t>
+          <t>0,49; 1,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,86; 12,15</t>
+          <t>0,48; 1,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,6</t>
+          <t>4,08; 6,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,18</t>
+          <t>0,47; 0,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,53; 12,17</t>
+          <t>0,59; 1,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,07</t>
+          <t>4,42; 6,66</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,81%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,68%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>1,02%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>0,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,98</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 8,75</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>0,23; 1,47</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 2,04</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 13,34</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 2,32</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 1,11</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 7,89</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 1,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>5,12%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>1,12%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>16,91%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>12,48%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>0,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 2,52</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>2,15; 10,87</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 1,1</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 2,45</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>11,59; 23,94</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 1,79</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 1,99</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>8,64; 16,93</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 1,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,78%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,59%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,77%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>5,37%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 1,15</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>3,98; 7,32</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 0,73</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 1,14</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 7,12</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 0,83</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 1,02</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>4,44; 6,66</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 0,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vulnerabilidad ante otros problemas de salud mental</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2715</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4784</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3714</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8699</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 979</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>691; 7354</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1895; 7260</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1278</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5519</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2211; 9298</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>78; 1470</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1222; 9083</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5027; 13888</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1373</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2871</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2525</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6933</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 334</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3760</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1729; 7392</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1335</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6467</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1058; 6382</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1501</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>490; 7271</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3734; 11378</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2570</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2243</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6543</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 320</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>805; 6439</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1792; 10342</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>363; 2175</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>469; 4720</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>966; 4706</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>437; 2431</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1823; 9038</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3584; 13503</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3049</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8366</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2198</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4964</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12970</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1032; 3609</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1204; 7036</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4836; 13309</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 764</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>456; 5572</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1923; 8897</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1160; 3816</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2225; 10192</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>8391; 19788</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10634</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1439</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14378</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>99; 1411</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2017</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4824; 20821</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>391; 2418</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>268; 4523</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1037; 13604</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>700; 3046</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>544; 4580</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7400; 26358</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1752</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3081</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5013</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>206; 1767</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1566</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>439; 6605</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>504; 3411</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>494; 4196</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>707; 10561</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>945; 3975</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>896; 4615</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1812; 12161</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1670</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3536</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1113</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2713</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>19343</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1452</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>22879</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>86; 939</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>666; 3666</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1518; 7341</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>497; 2717</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1046; 6057</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>13604; 27432</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>674; 3181</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2157; 7599</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>16583; 31177</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>11999</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>36745</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>5477</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>12031</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>40671</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>9101</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>24030</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>77416</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2367; 5692</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>7690; 18636</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>27291; 48780</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3712; 7889</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>7474; 18564</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>31000; 52927</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>6772; 12064</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>17960; 33863</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>63628; 95739</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_OTRO-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_OTRO-Edad-trans_dic.xlsx
@@ -796,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 334</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0; 320</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">

--- a/data/trans_dic/VUL_OTRO-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_OTRO-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental (tasa de respuesta: 99,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental (tasa de respuesta: 99,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_OTRO-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_OTRO-Edad-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 11,3</t>
+          <t>2,79; 11,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 15,11</t>
+          <t>3,67; 15,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,17</t>
+          <t>0,11; 1,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 11,04</t>
+          <t>4,13; 11,55</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 6,02</t>
+          <t>1,46; 6,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,99</t>
+          <t>0,74; 4,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,0; 0,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,54</t>
+          <t>1,47; 4,52</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,42</t>
+          <t>1,4; 7,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,22</t>
+          <t>0,25; 1,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,58</t>
+          <t>0,7; 3,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,26</t>
+          <t>0,15; 0,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,99</t>
+          <t>1,29; 4,95</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,61</t>
+          <t>0,8; 2,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1026,12 +1026,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 11,36</t>
+          <t>4,28; 11,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,55</t>
+          <t>0,0; 1,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1041,12 +1041,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 7,44</t>
+          <t>1,63; 7,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,38</t>
+          <t>0,49; 1,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,36</t>
+          <t>3,69; 7,8</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,12</t>
+          <t>0,07; 0,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 21,24</t>
+          <t>5,38; 21,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,65</t>
+          <t>0,35; 2,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 11,74</t>
+          <t>0,88; 10,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,12</t>
+          <t>0,32; 1,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,46; 12,32</t>
+          <t>3,69; 12,06</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,65</t>
+          <t>0,12; 1,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 9,62</t>
+          <t>0,6; 8,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,97</t>
+          <t>0,4; 1,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 11,98</t>
+          <t>0,8; 11,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,79</t>
+          <t>0,33; 1,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 7,75</t>
+          <t>1,35; 8,32</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,98</t>
+          <t>0,19; 2,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1356,12 +1356,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,2; 10,64</t>
+          <t>2,55; 11,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,04</t>
+          <t>0,24; 1,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1371,12 +1371,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,9; 23,99</t>
+          <t>11,9; 23,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,39</t>
+          <t>0,33; 1,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,04; 17,0</t>
+          <t>8,85; 17,5</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,82</t>
+          <t>0,37; 0,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,18</t>
+          <t>3,92; 7,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,04</t>
+          <t>0,41; 0,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1481,12 +1481,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,08; 6,97</t>
+          <t>4,13; 7,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,83</t>
+          <t>0,44; 0,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,66</t>
+          <t>4,5; 6,6</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>535</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>632</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 979</t>
+          <t>0; 2007</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -1776,12 +1776,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1895; 7260</t>
+          <t>1791; 7600</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0; 1278</t>
+          <t>0; 507</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2211; 9298</t>
+          <t>2260; 9625</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>78; 1470</t>
+          <t>161; 2235</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5027; 13888</t>
+          <t>5190; 14529</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>378</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>378</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1939,12 +1939,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1729; 7392</t>
+          <t>1790; 7768</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1335</t>
+          <t>0; 1278</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1954,12 +1954,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1058; 6382</t>
+          <t>943; 6250</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1501</t>
+          <t>0; 1367</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3734; 11378</t>
+          <t>3700; 11342</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>768</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>768</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1792; 10342</t>
+          <t>1949; 10030</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>363; 2175</t>
+          <t>273; 1625</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>966; 4706</t>
+          <t>916; 4897</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>437; 2431</t>
+          <t>315; 1641</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3584; 13503</t>
+          <t>3496; 13410</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>2175</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>385</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2198</t>
+          <t>2560</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1032; 3609</t>
+          <t>1153; 3723</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4836; 13309</t>
+          <t>5018; 13028</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 764</t>
+          <t>0; 1525</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2280,12 +2280,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1923; 8897</t>
+          <t>1948; 8855</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1160; 3816</t>
+          <t>1451; 4368</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8391; 19788</t>
+          <t>8727; 18458</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1046</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1509</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>99; 1411</t>
+          <t>93; 1185</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4824; 20821</t>
+          <t>5273; 20623</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>391; 2418</t>
+          <t>529; 3053</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1037; 13604</t>
+          <t>1015; 12421</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>700; 3046</t>
+          <t>889; 3611</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>7400; 26358</t>
+          <t>7882; 25803</t>
         </is>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>206; 1767</t>
+          <t>125; 1128</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>439; 6605</t>
+          <t>411; 6111</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>504; 3411</t>
+          <t>467; 2255</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2606,12 +2606,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>707; 10561</t>
+          <t>707; 10498</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>945; 3975</t>
+          <t>729; 2661</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1812; 12161</t>
+          <t>2114; 13060</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>691</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>773</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1452</t>
+          <t>1464</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>86; 939</t>
+          <t>168; 2018</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -2754,12 +2754,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1518; 7341</t>
+          <t>1761; 8163</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>497; 2717</t>
+          <t>320; 1547</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -2769,12 +2769,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>13604; 27432</t>
+          <t>13607; 27145</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>674; 3181</t>
+          <t>719; 2780</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>16583; 31177</t>
+          <t>16230; 32090</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3624</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>5477</t>
+          <t>4932</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>9101</t>
+          <t>9144</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2367; 5692</t>
+          <t>2638; 6512</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -2917,12 +2917,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>27291; 48780</t>
+          <t>26639; 48638</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3712; 7889</t>
+          <t>3263; 6948</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>31000; 52927</t>
+          <t>31355; 53542</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>6772; 12064</t>
+          <t>6729; 12005</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>63628; 95739</t>
+          <t>64780; 94894</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/VUL_OTRO-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_OTRO-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,7%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,09%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,15%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,59%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,77%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>6,92%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,44%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,09%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2,79; 11,83</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 4,32</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 2,62</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 4,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 11,83</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>3,67; 15,64</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,24</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,77</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,24</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3,67; 15,64</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>4,13; 11,55</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 2,67</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,11; 1,56</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 2,67</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>4,13; 11,55</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,63%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,55%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,65%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,26%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,46; 6,32</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,06</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 6,32</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0,74; 4,88</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,05</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,85</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,05</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 4,88</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>1,47; 4,52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 1,84</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,95</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 1,84</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 4,52</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,69%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,74%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,36%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,89%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,4; 7,2</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 2,59</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 2,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 7,2</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,7; 3,73</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 1,91</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,25; 1,46</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 1,91</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 3,73</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1,29; 4,95</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 1,82</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,15; 0,76</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 1,82</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 4,95</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,51%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,14%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,25%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,69%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,85%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>0,86%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>0,86%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,28; 11,12</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 2,37</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,8; 2,58</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 2,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,28; 11,12</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>1,63; 7,41</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 2,0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,0</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 2,0</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,63; 7,41</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>3,69; 7,8</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 1,77</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>0,49; 1,47</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 1,77</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>3,69; 7,8</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,3%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,17%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>10,85%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>0,97%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,57%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>0,66%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>5,38; 21,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,86</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,07; 0,92</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,86</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>5,38; 21,04</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>0,88; 10,72</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 1,78</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>0,35; 2,01</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 1,78</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 10,72</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>3,69; 12,06</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 0,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>0,32; 1,28</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,94</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>3,69; 12,06</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,41%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,81%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>0,91%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>0,67%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,59%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,6; 8,9</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,85</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,12; 1,08</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,85</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 8,9</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>0,8; 11,9</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,22</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>0,4; 1,95</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 2,22</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 11,9</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>1,35; 8,32</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 1,24</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>0,33; 1,21</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 1,24</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 8,32</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,78%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,13%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,12%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>16,91%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>0,59%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>16,91%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>12,48%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>0,66%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>12,48%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,55; 11,83</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 2,49</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>0,19; 2,27</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 2,49</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,55; 11,83</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>11,9; 23,74</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 2,85</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>0,24; 1,17</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 2,85</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>11,9; 23,74</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>8,85; 17,5</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 2,11</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>0,33; 1,26</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 2,11</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>8,85; 17,5</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,58%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>5,41%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>0,62%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>0,77%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>0,6%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>0,79%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>5,38%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>3,92; 7,16</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 1,27</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>0,37; 0,9</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 1,27</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>3,92; 7,16</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>4,13; 7,05</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 1,19</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>0,41; 0,87</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 1,19</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>4,13; 7,05</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>4,5; 6,6</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 1,12</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>0,44; 0,79</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 1,12</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 6,6</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -1660,47 +1660,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2715</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>535</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2715</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3915</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>4784</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>97</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4784</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>8699</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3714</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>632</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>3714</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>8699</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1791; 7600</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>691; 7354</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0; 2007</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>691; 7354</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1791; 7600</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2260; 9625</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5519</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0; 507</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0; 5519</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2260; 9625</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>5190; 14529</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1222; 9083</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>161; 2235</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1222; 9083</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5190; 14529</t>
         </is>
       </c>
     </row>
@@ -1823,47 +1823,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1152</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4062</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2871</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1373</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>378</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1373</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2871</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>6933</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2525</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>378</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2525</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>6933</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1790; 7768</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3760</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0; 3760</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1790; 7768</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>943; 6250</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6467</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0; 1278</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 6467</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>943; 6250</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>3700; 11342</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>490; 7271</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0; 1367</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>490; 7271</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>3700; 11342</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2570</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2570</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>2243</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>768</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1840</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2243</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>6543</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>768</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>6543</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1949; 10030</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>805; 6439</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>805; 6439</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1949; 10030</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>916; 4897</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>469; 4720</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>273; 1625</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>469; 4720</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>916; 4897</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>3496; 13410</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1823; 9038</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>315; 1641</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1823; 9038</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>3496; 13410</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>14</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>8366</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3049</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>2175</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3049</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8366</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>385</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1916</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4604</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>12970</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4964</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>2560</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4964</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>12970</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>5018; 13028</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1204; 7036</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1153; 3723</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1204; 7036</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5018; 13028</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>1948; 8855</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>456; 5572</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>0; 1525</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>456; 5572</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1948; 8855</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>8727; 18458</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2225; 10192</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>1451; 4368</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2225; 10192</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>8727; 18458</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>10634</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>385</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>10634</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1439</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>1472</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>1439</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>3744</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>14378</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>1858</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1840</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>14378</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>5273; 20623</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2017</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>93; 1185</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0; 2017</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>5273; 20623</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>1015; 12421</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>268; 4523</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>529; 3053</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>268; 4523</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>1015; 12421</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>7882; 25803</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>544; 4580</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>889; 3611</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>544; 4580</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>7882; 25803</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>426</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>442</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1931</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>3081</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1752</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>1058</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>1752</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>3081</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>5013</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>1484</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>2194</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>5013</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>411; 6111</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1566</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>125; 1128</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>0; 1566</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>411; 6111</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>707; 10498</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>494; 4196</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>467; 2255</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>494; 4196</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>707; 10498</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>2114; 13060</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>896; 4615</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>729; 2661</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>896; 4615</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>2114; 13060</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
+      <c r="K22" s="2" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>3536</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1670</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>691</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>1670</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>3536</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>19343</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2713</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>773</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>2713</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>19343</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>22879</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>1464</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>4383</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>22879</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>1761; 8163</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>666; 3666</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>168; 2018</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>666; 3666</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1761; 8163</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>13607; 27145</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1046; 6057</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>320; 1547</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1046; 6057</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>13607; 27145</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>16230; 32090</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2157; 7599</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>719; 2780</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2157; 7599</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>16230; 32090</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>56</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>149</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>36745</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>11999</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>4212</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>11999</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>36745</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>40671</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>12031</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>4932</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>12031</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>40671</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>77416</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>24030</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>9144</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>24030</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>77416</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>26639; 48638</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>7690; 18636</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>2638; 6512</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>7690; 18636</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>26639; 48638</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>31355; 53542</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>7474; 18564</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>3263; 6948</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>7474; 18564</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>31355; 53542</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>64780; 94894</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>17960; 33863</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>6729; 12005</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>17960; 33863</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>64780; 94894</t>
         </is>
       </c>
     </row>
